--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.14</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.14</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>87.58</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>77.84</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4008</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3311</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001261</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.07</v>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.1</v>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7679</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4712</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4596</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3635</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.49</v>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.07</v>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2014,14 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.1</v>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2030,14 +2117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.25</v>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2046,13 +2155,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2274,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.17</v>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2321,14 +2364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.49</v>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2337,14 +2402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.07</v>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2353,14 +2440,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.1</v>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2369,14 +2478,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="7">
@@ -2385,13 +2632,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>4.49</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>2.07</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.1</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +2720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +2852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688299-长阳科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.17</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>4.49</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>2.07</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.1</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -616,7 +633,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +1731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1620,7 +2053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2246,7 +2679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2720,7 +3153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2852,7 +3285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2944,174 +3377,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0518</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>